--- a/story/Story Summarization 剧情简述/Main Story and Others 主线剧情等/Operator Record 干员密录/story_aglina_1_2.xlsx
+++ b/story/Story Summarization 剧情简述/Main Story and Others 主线剧情等/Operator Record 干员密录/story_aglina_1_2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>zh_CN</t>
   </si>
@@ -31,7 +31,11 @@
     <t>没能找到包裹主人的安洁莉娜回到罗德岛，这才发现原来手中的包裹的主人竟然是铃兰。</t>
   </si>
   <si>
-    <t xml:space="preserve">没能找到包裹主人的安洁莉娜回到罗德岛，这才发现原来手中的包裹的主人竟然是铃兰。
+    <t xml:space="preserve">アンジェリーナは、荷物の受取人を見つけられなかった。しかしロドスに戻ると、その荷物の差出人がスズランで、受取人が自分だったことをようやく知るのだった。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unable to find the package's owner, Angelina returns to Rhodes Island only to find that the owner of the package in her hand is Suzuran.
 </t>
   </si>
   <si>
@@ -422,10 +426,10 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
